--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1419.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1419.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.69312679785776</v>
+        <v>1.117959499359131</v>
       </c>
       <c r="B1">
-        <v>2.095599541316044</v>
+        <v>1.012356162071228</v>
       </c>
       <c r="C1">
-        <v>2.243865053585941</v>
+        <v>6.664680480957031</v>
       </c>
       <c r="D1">
-        <v>2.659843934524665</v>
+        <v>2.025692462921143</v>
       </c>
       <c r="E1">
-        <v>3.150658457120643</v>
+        <v>1.125463128089905</v>
       </c>
     </row>
   </sheetData>
